--- a/public/库存.xlsx
+++ b/public/库存.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="export_2024-09-27 (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="export_2024-09-29 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>商品名称</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>批号</t>
+  </si>
+  <si>
+    <t>生产厂家</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>的伟大伟大</t>
@@ -1203,15 +1212,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1230,45 +1239,167 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>12312</v>
+      </c>
+      <c r="C2">
         <v>312</v>
       </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
       <c r="D2">
-        <v>123</v>
+        <v>312</v>
       </c>
       <c r="E2">
         <v>123</v>
       </c>
       <c r="F2">
+        <v>21312</v>
+      </c>
+      <c r="G2">
+        <v>3123</v>
+      </c>
+      <c r="H2">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>123</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
       </c>
       <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>12312</v>
+      </c>
+      <c r="E3">
+        <v>3123</v>
+      </c>
+      <c r="F3">
+        <v>123123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>231</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>213</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>213</v>
       </c>
-      <c r="F3">
-        <v>123</v>
+      <c r="F4">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>312</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>123</v>
+      </c>
+      <c r="F5">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>312</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>123</v>
+      </c>
+      <c r="F6">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>231</v>
+      </c>
+      <c r="D7">
+        <v>213</v>
+      </c>
+      <c r="E7">
+        <v>213</v>
+      </c>
+      <c r="F7">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
